--- a/preprocessing/3_data_analysis/topic_label_scatter_b.xlsx
+++ b/preprocessing/3_data_analysis/topic_label_scatter_b.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinapradier/GIT/latam_topics/code/7_data_analysis_1990/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinapradier/GIT/regional_circuits_gender_inequality/preprocessing/3_data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD04E28A-E9C1-7F4B-93A6-2332C195F48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862B204A-4C69-434E-AF2D-4DF58EC44FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3720" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="173">
   <si>
     <t>topic</t>
   </si>
@@ -443,6 +443,102 @@
   </si>
   <si>
     <t>Viruses</t>
+  </si>
+  <si>
+    <t>perovskites perovskite photovoltaic ferromagnetic</t>
+  </si>
+  <si>
+    <t>['perovskites', 'perovskite', 'photovoltaic', 'ferromagnetic', 'solar', 'spectroscopy', 'magnetoresistance', 'antiferromagnetic', 'ferroelectric', 'paramagnetic']</t>
+  </si>
+  <si>
+    <t>['Spectral reflectance optimization for planar perovskite solar cells Spectral reflectance optimization for planar perovskite solar cells Spectral reflectance optimization for planar perovskite solar cells Perovskite solar cells (PSC) have been under development for a few years only, and quickly they have achieved high record efficiencies, above 25 %, attracting great attention as a possible alternative to commercial Si solar cells. However, very few articles have dealt with the optical losses in this type of solar cells, but an important factor to be taken in account for developing highly efficient extra-thin solar cells, such as Perovskite Solar Cells, is the optical reflectance in the solar spectrum for these devices. Then, in this work, we do calculations for planar multilayer perovskite solar cells using the Optical Matrix method for determining the expected reflectance as a function of wavelength, using refraction index and extinction coefficients for each of the materials that typically constitute these solar cells. Our results show that for very thin perovskite absorber layers (less than 350 nm), the optical losses can become very high. Even for a typical perovskite thickness above 450 nm, the total average reflectance in the solar spectrum can be as high as 10 %, approximately.', 'Calculation of the optical losses in perovskite solar cells Calculation of the optical losses in perovskite solar cells Calculation of the optical losses in perovskite solar cells Perovskite solar cells (PSC) have been in development for a few years only, and quickly they have achieved high record efficiencies, above 23%, attracting great attention as a possible alternative to commercial Si solar cells. However, very few articles have dealt with the optical losses in this type of solar cells, but an important factor to be taken in account for developing highly efficient extra-thin solar cells, such as Perovskite Solar Cells, is the optical reflectance in the solar spectrum wavelength range for these devices. Reducing optical losses should cause improved photocurrent density and efficiency of the cell. Therefore, estimating the reflectance for each wavelength of the solar spectrum and the total average reflectance should help better design this kind of devices. Then, in this work we do calculations for planar multilayer perovskite solar cells using the Optical Matrix method for determining the expected reflectance as a function of wavelength, using refraction index and extinction coefficients for each of the materials that constitute the solar cells. Our results show that for very thin perovskite absorbers (less than 350 nm), the optical losses can become very high. Even for a typical perovskite thickness above 400 nm, the total average reflectance in the solar spectrum wavelength range can be as high as 10%, approximately. Then, in the future, a further increase of efficiency might be achieved by appropriate roughening of the perovskite layer surfaces.', 'On the bonding nature of electron states for the Fe-Mo double perovskite On the bonding nature of electron states for the Fe-Mo double perovskite On the bonding nature of electron states for the Fe-Mo double perovskite The electronic transport as well as the effect of an external magnetic field has been investigated on manganese-based materials, spinels and perovskites. Potential applications of double perovskites go from magnetic sensors to electrodes in solid-oxide fuel cells; besides the practical interests, it is known that small changes in composition modify radically the physical properties of double perovskites. We have studied the Sr2FeMoO6 double perovskite compound (SFMO) using first-principles density functional theory. The calculations were done within the generalized gradient approximation (GGA) scheme with the Perdew-Burke-Ernzerhof (PBE) functional. We have made a detailed analysis of each electronic state and the charge density maps around the Fermi level. For the electronic properties of SFMO it was used a primitive cell, for which we found the characteristic half-metallic behavior density of states composed by eg and t2g electrons from Fe and Mo atoms. Those peaks were tagged as bonding or antibonding around the Fermi level at both, valence and conduction bands.']</t>
+  </si>
+  <si>
+    <t>percolation percolating lattice dimensional</t>
+  </si>
+  <si>
+    <t>['percolation', 'percolating', 'lattice', 'dimensional', 'cubic', 'constrained', 'multifractal', 'lattices', 'simulations', 'analytical']</t>
+  </si>
+  <si>
+    <t>['Percolation on an isotropically directed lattice Percolation on an isotropically directed lattice Percolation on an isotropically directed lattice We investigate percolation on a randomly directed lattice, an intermediate between standard percolation and directed percolation, focusing on the isotropic case in which bonds on opposite directions occur with the same probability. We derive exact results for the percolation threshold on planar lattices, and we present a conjecture for the value of the percolation-threshold in any lattice. We also identify presumably universal critical exponents, including a fractal dimension, associated with the strongly connected components both for planar and cubic lattices. These critical exponents are different from those associated either with standard percolation or with directed percolation.', 'Bond percolation for homogeneous two-dimensional lattices Bond percolation for homogeneous two-dimensional lattices Bond percolation for homogeneous two-dimensional lattices Bond percolation is studied for the three homogeneous two-dimensional lattices: square lattice (SL), triangular lattice (TL) and honeycomb lattice (HL). An expanding cell technique is used to obtain percolation thresholds and other relevant information for different cell sizes. We extend the analysis as to include slightly asymmetric cells in addition to the usual symmetric cells to get more points in the scaling analysis. Exact percolation functions are obtained for each size. Then, the percolation threshold is obtained by means of two complementary methods: one based on the well-known renormalization techniques and the other one introduced here which is based upon determining the inflection point of the percolation curves. A comparison of the results obtained by these two methods is performed. The study includes iterations to extrapolate numerical results towards the thermodynamic limit. Critical exponents ν, β and γ are obtained. Values are compared with numerical results and expected theoretical estimations; present results show agreement and even improvement (in the case of γ) with respect to some numeric values available in the literature. Comparison tables are provided.', 'Difference percolation on a square lattice Difference percolation on a square lattice Difference percolation on a square lattice Simulations of percolation processes on random site square lattices are performed implementing a different occupation algorithm for both ordinary percolation (OP) and invasion percolation (IP) problems. The main feature of the occupation process is the fact that it is performed in a locally restricted way by inspecting the difference between the measure assigned to neighboring sites. This restriction carries an intrinsic change in the distribution of invaded sites with a different percolation threshold and the same universality class. Conclusions are drawn concerning physical problems of propagation phenomena with local barriers where these simulations prove the possibility of controlling the wide spread of the invasor.']</t>
+  </si>
+  <si>
+    <t>arthritis antiinflammatory arthritic inflammation</t>
+  </si>
+  <si>
+    <t>['arthritis', 'antiinflammatory', 'arthritic', 'inflammation', 'inflammatory', 'rheumatoid', 'cartilage', 'cytokines', 'cytokine', 'immune']</t>
+  </si>
+  <si>
+    <t>['Anti-arthritic Effect of Eugenol on Collagen-Induced Arthritis Experimental Model Anti-arthritic Effect of Eugenol on Collagen-Induced Arthritis Experimental Model Anti-arthritic Effect of Eugenol on Collagen-Induced Arthritis Experimental Model This study was designed to test the efficacy of eugenol, a compound obtained from the essential oil of cloves (Syzygium aromaticum) in collagen-induced arthritis (CIA), a well characterized murine model of rheumatoid arthritis. Macroscopic clinical evidence of CIA manifests first as periarticular erythema and edema in the hind paws. Treatment with eugenol starting at the onset of arthritis (day 25) ameliorated these clinical signs of CIA. Furthermore, eugenol inhibited mononuclear cell infiltration into the knee joints of arthritic mice and also lowered the levels of cytokines (tumor necrosis factor (TNF)-α, interferon (IFN)-γ and tumor growth factor (TGF)-β) within the ankle joints. Eugenol treatment did not affect the in vitro cell viability as assessed using the 3-(4,5-dimethylthiazol-2-yl)-2,5-diphenyltetrazolium bromide (MTT) assay. Therefore, eugenol ameliorates experimental arthritis and could be useful as a beneficial supplement in treating human arthritis.', 'Quercetin attenuates zymosan-induced arthritis in mice Quercetin attenuates zymosan-induced arthritis in mice Quercetin attenuates zymosan-induced arthritis in mice Rheumatoid arthritis (RA) is a chronic autoimmune disease characterized by articular lesions, recruitment of inflammatory cells and increased levels of pro-inflammatory cytokine. The intra-articular administration of zymosan is an experimental model that promotes inflammatory parameters resembling RA. Therefore, this model was used to investigate the efficacy of quercetin as a treatment of articular inflammation. Treatment with quercetin dose-dependently reduced zymosan-induced hyperalgesia, articular edema and the recruitment of neutrophils to the knee joint cavity. Histological analysis confirmed that quercetin inhibited zymosan-induced arthritis. The treatment with quercetin also inhibited zymosan-induced depletion of reduced glutathione (GSH) levels, TNFα and IL-1β production, and gp91phox, prepro-endothelin-1 (preproET-1), and cyclooxygenase-2 mRNA expression. These molecular effects of quercetin were related to the inhibition of the nuclear factor kappa-B and induction of Nuclear factor erythroid 2- related factor (Nrf2)/home oxygenase (HO-1) pathway. Thus, quercetin exerted anti-inflammatory, analgesic and antioxidant effects in experimental arthritis, suggesting quercetin is a possible candidate for arthritis treatment.', 'Protective effect of methyl gallate on murine antigen-induced arthritis by inhibiting inflammatory process and bone erosion Protective effect of methyl gallate on murine antigen-induced arthritis by inhibiting inflammatory process and bone erosion Protective effect of methyl gallate on murine antigen-induced arthritis by inhibiting inflammatory process and bone erosion Methyl gallate (MG) is a plant-derived phenolic compound known to present remarkable anti-inflammatory effect in different experimental models, such as paw oedema, pleurisy, zymosan-induced arthritis and colitis. Herein we investigated the effect of MG in the mice model of antigen-induced arthritis (AIA), a model with complex inflammatory response, driven primally by immune process and that cause bone and cartilage erosion similarly found in rheumatoid arthritis. Arthritis was induced by intra-articular injection of albumin methylated from bovine serum (mBSA) in C57BL/6 male mice previously immunized. The dose–response analysis of MG (0.7–70 mg/kg; p.o) showed that maximum inhibition was reached with the dose of 7 mg/kg on paw oedema and cell infiltration induced by AIA at 7 h. Treatment with MG (7 mg/kg; p.o) or with the positive control, dexamethasone (Dexa, 10 mg/kg, ip) reduced AIA oedema formation, leukocyte infiltration, release of extracellular DNA and cytokine production 7 and 24 h (acute response). Mice treated daily with MG for 7 days showed no significant weight loss or liver and kidney toxicity contrary to dexamethasone that induced some degree of toxicity. Prolonged treatment with MG inhibited the late inflammatory response (28 days) reducing oedema formation, cell infiltration, synovial hyperplasia, pannus formation and cartilage degradation as observed in histopathological analyses. Ultimately, MG reduced bone resorption as evidenced by a decrease in tartrate-resistant acid phosphate (TRAP)-positive cells number in femur histology. Altogether, we demonstrate that MG ameliorates the inflammatory reaction driven primarily by the immune process, suggesting a potential therapeutic application in arthritis treatment.']</t>
+  </si>
+  <si>
+    <t>comparisons comparison reviewed k18</t>
+  </si>
+  <si>
+    <t>['comparisons', 'comparison', 'reviewed', 'k18', 'measurements', 'cipm', 'measurement', 'ccm', 'k27', 'k34']</t>
+  </si>
+  <si>
+    <t>['Final report on SIM comparison in volume of weights SIM.M.D-K3 Final report on SIM comparison in volume of weights SIM.M.D-K3 Final report on SIM comparison in volume of weights SIM.M.D-K3 The report summarizes the results of a comparison concerning the determinatation of volume of a set of four weights, which nominal values are 2 kg, 1 kg, 50 g and 1 g. Seven NMIs within SIM have participated. The reported results are consistent with each other. Also, they can be used to evidence degrees of equivalence with other RMOs results once linking data are available Main text. To reach the main text of this paper, click on Final Report. Note that this text is that which appears in Appendix B of the BIPM key comparison database kcdb.bipm.org/. The final report has been peer-reviewed and approved for publication by CCM, according to the provisions of the CIPM Mutual Recognition Arrangement (CIPM MRA).', 'Key comparison on pH of an unknown phosphate buffer Key comparison on pH of an unknown phosphate buffer Key comparison on pH of an unknown phosphate buffer Results of CCQM-K99 key comparison on unknown phosphate buffer pH ∼ 7.5 at 5 °C, 15 °C, 25 °C, 37 °C and 50 °C are reported. Good agreement is found between the majority of participants. Main text To reach the main text of this paper, click on Final Report. Note that this text is that which appears in Appendix B of the BIPM key comparison database kcdb.bipm.org/. The final report has been peer-reviewed and approved for publication by the CCQM, according to the provisions of the CIPM Mutual Recognition Arrangement (CIPM MRA).', 'Final report. SIM comparison in mass standards SIM.M.M-K4 Final report. SIM comparison in mass standards SIM.M.M-K4 Final report. SIM comparison in mass standards SIM.M.M-K4 This report summarizes the results of a SIM comparison of a 1 kg mass standard carried out by 7 NMIs. The results reported by the participants are consistent with each other and they can be linked to the comparison CCM.M-K4 with satisfactory degrees of equivalence. Main text To reach the main text of this paper, click on Final Report. Note that this text is that which appears in Appendix B of the BIPM key comparison database kcdb.bipm.org/. The final report has been peer-reviewed and approved for publication by the CCM, according to the provisions of the CIPM Mutual Recognition Arrangement (CIPM MRA).']</t>
+  </si>
+  <si>
+    <t>discharges discharge electrical voltage</t>
+  </si>
+  <si>
+    <t>['discharges', 'discharge', 'electrical', 'voltage', 'leakage', 'pulses', 'generators', 'hydrogenerators', 'electromagnetic', 'signals']</t>
+  </si>
+  <si>
+    <t>['Clustering Plots for the Separation of Partial Discharge Sources Based on Amplitude, Charge and Energy of PD Pulses Clustering Plots for the Separation of Partial Discharge Sources Based on Amplitude, Charge and Energy of PD Pulses Clustering Plots for the Separation of Partial Discharge Sources Based on Amplitude, Charge and Energy of PD Pulses It is almost always the case that multiple partial discharge (PD) sources are active in high-voltage equipment as a result of insulation defects or ageing. Therefore, over the years, different clustering techniques have been tested and used, so that each individual PD source can be separated and subsequently recognized, e.g. by means of the phase resolved PD patterns (PRPD)[1].', 'A Comparison of Inductive Sensors in the Characterization of Partial Discharges and Electrical Noise Using the Chromatic Technique A Comparison of Inductive Sensors in the Characterization of Partial Discharges and Electrical Noise Using the Chromatic Technique A Comparison of Inductive Sensors in the Characterization of Partial Discharges and Electrical Noise Using the Chromatic Technique Partial discharges (PDs) are one of the most important classes of ageing processes that occur within electrical insulation. PD detection is a standardized technique to qualify the state of the insulation in electric assets such as machines and power cables. Generally, the classical phase-resolved partial discharge (PRPD) patterns are used to perform the identification of the type of PD source when they are related to a specific degradation process and when the electrical noise level is low compared to the magnitudes of the PD signals. However, in practical applications such as measurements carried out in the field or in industrial environments, several PD sources and large noise signals are usually present simultaneously. In this study, three different inductive sensors have been used to evaluate and compare their performance in the detection and separation of multiple PD sources by applying the chromatic technique to each of the measured signals.', 'A new design of a test platform for testing multiple partial discharge sources A new design of a test platform for testing multiple partial discharge sources A new design of a test platform for testing multiple partial discharge sources Partial discharge (PD) measurements are an effective tool for insulation assessment of high-voltage (HV) equipment widely used in both HV laboratories and in field tests. This paper presents the design of a test platform for electrical detection of partial discharges that contribute to the understanding of the phenomena. The test set-up comprises a collection of electrodes for the production of artificial PD sources frequently found in HV equipment, such as positive corona, negative corona, surface discharges, internal discharges, floating component and free moving particle. The test set-up has been designed in such a way that the gaps and clearances can be adjusted to modify the discharge characteristics, e.g. the discharge inception voltage, amplitude, repetition rate, etc. Besides, the platform has a symmetrical and radial arrangement of the PD sources around the coupling capacitor of the PD measuring systems with contribute to reduce the effect of the measuring circuit on the measurements.Relevant characteristics of the presented design is that the sensing of the PD signals is done by a high frequency current transformer (HFCT) with a wide bandwidth and the acquisition of the signals by a digital oscilloscope. A software tool was designed for the purpose of processing of the digitalized signals which proved to be an excellent workbench for studying the performance of clustering techniques.']</t>
+  </si>
+  <si>
+    <t>green functions theory theorem</t>
+  </si>
+  <si>
+    <t>['green', 'functions', 'theory', 'theorem', 'quantum', 'spectral', 'function', 'approximation', 'computation', 'formula']</t>
+  </si>
+  <si>
+    <t>["Pedagogical introduction to equilibrium Green's functions: condensed-matter examples with numerical implementations Pedagogical introduction to equilibrium Green's functions: condensed-matter examples with numerical implementations Pedagogical introduction to equilibrium Green's functions: condensed-matter examples with numerical implementations The Green's function method has applications in several fields in Physics, from classical differential equations to quantum many-body problems. In the quantum context, Green's functions are correlation functions, from which it is possible to extract information from the system under study, such as the density of states, relaxation times and response functions. Despite its power and versatility, it is known as a laborious and sometimes cumbersome method. Here we introduce the equilibrium Green's functions and the equation-of-motion technique, exemplifying the method in discrete lattices of non-interacting electrons. We start with simple models, such as the two-site molecule, the infinite and semi-infinite one-dimensional chains, and the two-dimensional ladder. Numerical implementations are developed via the recursive Green's function, implemented in Julia, an open-source, efficient and easy-to-learn scientific language. We also present a new variation of the surface recursive Green's function method, which can be of interest when simulating simultaneously the properties of surface and bulk.", "Green's functions in quantum mechanics courses Green's functions in quantum mechanics courses Green's functions in quantum mechanics courses The use of Green's functions is valuable when solving problems in electrodynamics, solid-state physics, and many-body physics. However, its role in quantum mechanics is often limited to the context of scattering by a central force. This work shows how Green's functions can be used in other examples in quantum mechanics courses. In particular, we introduce time-independent Green's functions and the Dyson equation to solve problems with an external potential. We calculate the reflection and transmission coefficients of scattering by a Dirac delta barrier and the energy levels and local density of states of the infinite square well potential.", "The Local Formulation for the Modified Green's Function Method The Local Formulation for the Modified Green's Function Method The Local Formulation for the Modified Green's Function Method The Modified Global Green's Function Method (MGGFM) is an integral technique that is characterized by good accuracy in the evaluation of boundary fluxes. This method uses only projections of the Green's Function for the solution of the discrete problem and this is the origin of the term 'Modified' of its name. In this paper the local strategy for calculating the projections of Green's function using de Finite Element Method (FEM) are detailed. The numerical examples show some aspects of the method that had not yet been observed and good results for the flux in all nodes of the mesh."]</t>
+  </si>
+  <si>
+    <t>hemolytic oxygenase heme oxygenases</t>
+  </si>
+  <si>
+    <t>['hemolytic', 'oxygenase', 'heme', 'oxygenases', 'hemoglobin', 'hemopexin', 'oxidative', 'hemolysis', 'hemr', 'hemin']</t>
+  </si>
+  <si>
+    <t>['Cytoprotective role of heme oxygenase-1 and heme degradation derived end products in liver injury Cytoprotective role of heme oxygenase-1 and heme degradation derived end products in liver injury Cytoprotective role of heme oxygenase-1 and heme degradation derived end products in liver injury The activation of heme oxygenase-1 (HO-1) appears to be an endogenous defensive mechanism used by cells to reduce inflammation and tissue damage in a number of injury models. HO-1, a stress-responsive enzyme that catabolizes heme into carbon monoxide (CO), biliverdin and iron, has previously been shown to protect grafts from ischemia/reperfusion and rejection. In addition, the products of the HO-catalyzed reaction, particularly CO and biliverdin/bilirubin, have been shown to exert protective effects in the liver against a number of stimuli, as in chronic hepatitis C and in transplanted liver grafts. Furthermore, the induction of HO-1 expression can protect the liver against damage caused by a number of chemical compounds. More specifically, the CO derived from HO-1-mediated heme catabolism has been shown to be involved in the regulation of inflammation; furthermore, administration of low concentrations of exogenous CO has a protective effect against inflammation. Both murine and human HO-1 deficiencies have systemic manifestations associated with iron metabolism, such as hepatic overload (with signs of a chronic hepatitis) and iron deficiency anemia (with paradoxical increased levels of ferritin). Hypoxia induces HO-1 expression in multiple rodent, bovine and monkey cell lines, but interestingly, hypoxia represses expression of the human HO-1 gene in a variety of human cell types (endothelial cells, epithelial cells, T cells). These data suggest that HO-1 and CO are promising novel therapeutic molecules for patients with inflammatory diseases. In this review, we present what is currently known regarding the role of HO-1 in liver injuries and in particular, we focus on the implications of targeted induction of HO-1 as a potential therapeutic strategy to protect the liver against chemically induced injury.', 'Heme on innate immunity and inflammation Heme on innate immunity and inflammation Heme on innate immunity and inflammation Heme is an essential molecule expressed ubiquitously all through our tissues. Heme plays major functions in cellular physiology and metabolism as the prosthetic group of diverse proteins. Once released from cells and from hemeproteins free heme causes oxidative damage and inflammation, thus acting as a prototypic damage-associated molecular pattern. In this context, free heme is a critical component of the pathological process of sterile and infectious hemolytic conditions including malaria, hemolytic anemias, ischemia-reperfusion, and hemorrhage. The plasma scavenger proteins hemopexin and albumin reduce heme toxicity and are responsible for transporting free heme to intracellular compartments where it is catabolized by heme-oxygenase enzymes. Upon hemolysis or severe cellular damage the serum capacity to scavenge heme may saturate and increase free heme to sufficient amounts to cause tissue damage in various organs. The mechanism by which heme causes reactive oxygen generation, activation of cells of the innate immune system and cell death are not fully understood. Although heme can directly promote lipid peroxidation by its iron atom, heme can also induce reactive oxygen species generation and production of inflammatory mediators through the activation of selective signaling pathways. Heme activates innate immune cells such as macrophages and neutrophils through activation of innate immune receptors. The importance of these events has been demonstrated in infectious and non-infectious diseases models. In this review, we will discuss the mechanisms behind heme-induced cytotoxicity and inflammation and the consequences of these events on different tissues and diseases.', 'Heme-Oxygenases during Erythropoiesis in K562 and Human Bone Marrow Cells Heme-Oxygenases during Erythropoiesis in K562 and Human Bone Marrow Cells Heme-Oxygenases during Erythropoiesis in K562 and Human Bone Marrow Cells In mammalian cells, heme can be degraded by heme-oxygenases (HO). Heme-oxygenase 1 (HO-1) is known to be the heme inducible isoform, whereas heme-oxygenase 2 (HO-2) is the constitutive enzyme. Here we investigated the presence of HO during erythroid differentiation in human bone marrow erythroid precursors and K562 cells. HO-1 mRNA and protein expression levels were below limits of detection in K562 cells. Moreover, heme was unable to induce HO-1, at the protein and mRNA profiles. Surprisingly, HO-2 expression was inhibited upon incubation with heme. To evaluate the physiological relevance of these findings, we analyzed HO expression during normal erythropoiesis in human bone marrow. Erythroid precursors were characterized by lack of significant expression of HO-1 and by progressive reduction of HO-2 during differentiation. FLVCR expression, a recently described heme exporter found in erythroid precursors, was also analyzed. Interestingly, the disruption in the HO detoxification system was accompanied by a transient induction of FLVCR. It will be interesting to verify if the inhibition of HO expression, that we found, is preventing a futile cycle of concomitant heme synthesis and catabolism. We believe that a significant feature of erythropoiesis could be the replacement of heme breakdown by heme exportation, as a mechanism to prevent heme toxicity.']</t>
+  </si>
+  <si>
+    <t>Perovskite Solar Cells</t>
+  </si>
+  <si>
+    <t>Percolation</t>
+  </si>
+  <si>
+    <t>Arthritis</t>
+  </si>
+  <si>
+    <t>Measurement Comparison</t>
+  </si>
+  <si>
+    <t>Electric Discharge</t>
+  </si>
+  <si>
+    <t>Green's Functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heme Oxygenases </t>
+  </si>
+  <si>
+    <t>electroneutrality electrolytes electrolyte electrostatic</t>
+  </si>
+  <si>
+    <t>['electroneutrality', 'electrolytes', 'electrolyte', 'electrostatic', 'electroactive', 'electrophoretic', 'charge', 'charges', 'electrokinetic', 'electric']</t>
+  </si>
+  <si>
+    <t>['Equilibrium properties of charged spherical colloidal particles suspended in aqueous electrolytes: Finite ion size and effective ion permittivity effects Equilibrium properties of charged spherical colloidal particles suspended in aqueous electrolytes: Finite ion size and effective ion permittivity effects Equilibrium properties of charged spherical colloidal particles suspended in aqueous electrolytes: Finite ion size and effective ion permittivity effects The equilibrium properties of a charged spherical colloidal particle immersed in an aqueous electrolyte solution are examined using an extension of the Standard Electrokinetic Model that takes into account the finite ion size by modeling the aqueous electrolyte solution as a suspension of polarizable insulating spheres in water. We find that this model greatly amplifies the steric effects predicted by the usual modified Poisson-Boltzmann equation, which only imposes a restriction on the ability of ions to approach one another. This suggests that a solution of the presented model under nonequilibrium conditions could have important consequences in the interpretation of dielectric and electrokinetic data in colloidal suspensions.', 'The dominance of small ions in the electric double layer of size- and charge-asymmetric electrolytes: a mean-field study on the charge reversal and surface charge amplification The dominance of small ions in the electric double layer of size- and charge-asymmetric electrolytes: a mean-field study on the charge reversal and surface charge amplification The dominance of small ions in the electric double layer of size- and charge-asymmetric electrolytes: a mean-field study on the charge reversal and surface charge amplification The dominance of counterions in the electric double layer of size-asymmetric semi-punctual ions was proposed more than 30 years ago by Valleau and Torrie. According to their theoretical prescription, at large colloidal surface charges, the double layer properties of a fully asymmetric binary electrolyte become similar to those of a completely symmetric electrolyte if the properties of counterions are the same in both instances. In the same theoretical framework, we propose here that, for a fixed concentration of the smallest ionic species and weakly/moderate colloidal surface charges, the valence of small ions rules or mainly determines the structural and thermodynamic properties of the electric double layer regardless of the colloidal polarity. In other words, we show that the characteristics of the small ions dominate the double layer structure of non-highly charged colloids, independently if the small ions are coions or counterions. This is illustrated by a comprehensive analysis of the ionic and integrated charge profiles around a spherical macroion immersed in a fully size- and charge-asymmetric semi-punctual electrolyte. Charge reversal and surface charge amplification are observed in the regime of low/medium colloidal surface charge densities. The origin of these counterintuitive phenomena, and their corresponding localisation properties in the Helmholtz zone, are explained in terms of the electric double layer structure.', 'Equilibrium Electric Double Layer of Charged Spherical Colloidal Particles: Effect of Different Distances of Minimum Ion Approach to The Particle Surface Equilibrium Electric Double Layer of Charged Spherical Colloidal Particles: Effect of Different Distances of Minimum Ion Approach to The Particle Surface Equilibrium Electric Double Layer of Charged Spherical Colloidal Particles: Effect of Different Distances of Minimum Ion Approach to The Particle Surface A study of the equilibrium double layer surrounding charged spherical particles is presented, considering that ions in the suspending medium have a finite size. It is assumed that each ionic species has a different minimum approach distance to the particle surface, while the distance of minimum approach between ions in the bulk has the same value for all ion species. Numerical calculations made using the network simulation method and including all the features of the considered model are presented, together with rigorous analytical results valid for a flat interface and point ions in the bulk electrolyte solution. It is shown that the double-layer parameters are very sensitive to the difference between the minimum approach distances of co-ions and counterions. For negative particles and greater approach distances for co-ions than for counterions, the potential always increases with this difference and, under appropriate circumstances, attains positive values leading to charge reversal. This phenomenon is favored by a high electrolyte concentration, high counterion valences, and low surface charge (in modulus). An analytical expression relating these parameters to the threshold value of the difference between the minimum approach distances of co-ions and counterions to the particle surface is presented.']</t>
+  </si>
+  <si>
+    <t>Electroneutrality</t>
   </si>
 </sst>
 </file>
@@ -785,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -818,223 +914,223 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>483</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>308</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>275</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>507</v>
+        <v>179</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>417</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>68</v>
+        <v>203</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1056,36 +1152,36 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1107,296 +1203,449 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>96</v>
+        <v>256</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>371</v>
+        <v>266</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>490</v>
+        <v>272</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>357</v>
+        <v>273</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>95</v>
+        <v>371</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>140</v>
+        <v>376</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>187</v>
+        <v>383</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>261</v>
+        <v>477</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>383</v>
+        <v>483</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>273</v>
+        <v>490</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>199</v>
+        <v>507</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>114</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>319</v>
+      </c>
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>331</v>
+      </c>
+      <c r="B38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>337</v>
+      </c>
+      <c r="B39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>360</v>
+      </c>
+      <c r="B40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>433</v>
+      </c>
+      <c r="B41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>490</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>518</v>
+      </c>
+      <c r="B43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>387</v>
+      </c>
+      <c r="B44" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E35">
-    <sortCondition ref="E1:E35"/>
+    <sortCondition ref="A1:A35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/preprocessing/3_data_analysis/topic_label_scatter_b.xlsx
+++ b/preprocessing/3_data_analysis/topic_label_scatter_b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinapradier/GIT/regional_circuits_gender_inequality/preprocessing/3_data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862B204A-4C69-434E-AF2D-4DF58EC44FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF6AC4D-9CED-AA4D-A4D6-8C770FCDA3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,9 +517,6 @@
     <t>Arthritis</t>
   </si>
   <si>
-    <t>Measurement Comparison</t>
-  </si>
-  <si>
     <t>Electric Discharge</t>
   </si>
   <si>
@@ -539,6 +536,9 @@
   </si>
   <si>
     <t>Electroneutrality</t>
+  </si>
+  <si>
+    <t>Measurement Comparisons</t>
   </si>
 </sst>
 </file>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1555,7 +1555,7 @@
         <v>152</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1572,7 +1572,7 @@
         <v>155</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1589,7 +1589,7 @@
         <v>158</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1623,7 +1623,7 @@
         <v>161</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1631,16 +1631,16 @@
         <v>387</v>
       </c>
       <c r="B44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" t="s">
         <v>169</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>170</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
